--- a/refFiles/TMP1.xlsx
+++ b/refFiles/TMP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="SP_config" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="856">
   <si>
     <t>登入/入口選單</t>
   </si>
@@ -2877,15 +2877,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NonCluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agdSet</t>
+  </si>
+  <si>
+    <t>員工</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>IDENTITY(1,1)</t>
+  </si>
+  <si>
+    <t>EmployeeNo</t>
+  </si>
+  <si>
+    <t>員工編號</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>EmployedStatusCode</t>
+  </si>
+  <si>
+    <t>在職狀況代碼</t>
+  </si>
+  <si>
+    <t>1:適用折薪, 2:適用全薪, 3:任用, 4:留停, 5:離職</t>
+  </si>
+  <si>
+    <t>EmpDeptCode</t>
+  </si>
+  <si>
+    <t>所屬單位代碼</t>
+  </si>
+  <si>
+    <t>C148, C560</t>
+  </si>
+  <si>
+    <t>EmpDeptName</t>
+  </si>
+  <si>
+    <t>所屬單位名稱</t>
+  </si>
+  <si>
+    <t>資訊處 運營管理部, 法金處 XX本部, 法金處 產品發展部, 忠孝企金中心</t>
+  </si>
+  <si>
+    <t>OfficeEmail</t>
+  </si>
+  <si>
+    <t>公司EMAIL</t>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NonCluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2896,7 +2959,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3464,7 +3527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3472,14 +3535,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
@@ -3488,7 +3551,7 @@
     <col min="7" max="8" width="56.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>245</v>
       </c>
@@ -3508,7 +3571,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="14" t="s">
         <v>603</v>
       </c>
@@ -3521,9 +3584,7 @@
       <c r="E2" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>832</v>
-      </c>
+      <c r="F2" s="14"/>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G3" si="0">"builder.Services.AddTransient&lt;I"&amp;A2&amp;"Service, "&amp;A2&amp;"Service&gt;();"</f>
         <v>builder.Services.AddTransient&lt;IAuxCodeService, AuxCodeService&gt;();</v>
@@ -3533,7 +3594,7 @@
         <v>using ESUN.AGD.WebApi.Application.AuxCode;</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
         <v>427</v>
       </c>
@@ -3546,9 +3607,7 @@
       <c r="E3" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>833</v>
-      </c>
+      <c r="F3" s="20"/>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
         <v>builder.Services.AddTransient&lt;IMessageTemplateService, MessageTemplateService&gt;();</v>
@@ -3556,6 +3615,23 @@
       <c r="I3" t="str">
         <f t="shared" si="1"/>
         <v>using ESUN.AGD.WebApi.Application.MessageTemplate;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -3572,12 +3648,12 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="25" t="s">
         <v>269</v>
       </c>
@@ -3612,7 +3688,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="25" t="s">
         <v>277</v>
       </c>
@@ -3647,7 +3723,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="25" t="s">
         <v>280</v>
       </c>
@@ -3682,7 +3758,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="25" t="s">
         <v>284</v>
       </c>
@@ -3717,7 +3793,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="25" t="s">
         <v>287</v>
       </c>
@@ -3752,7 +3828,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="25" t="s">
         <v>289</v>
       </c>
@@ -3787,7 +3863,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="25" t="s">
         <v>291</v>
       </c>
@@ -3822,7 +3898,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="25" t="s">
         <v>293</v>
       </c>
@@ -3857,7 +3933,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="25" t="s">
         <v>295</v>
       </c>
@@ -3892,7 +3968,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="25" t="s">
         <v>297</v>
       </c>
@@ -3927,7 +4003,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="25" t="s">
         <v>299</v>
       </c>
@@ -3962,7 +4038,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="25" t="s">
         <v>302</v>
       </c>
@@ -3997,7 +4073,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="25" t="s">
         <v>305</v>
       </c>
@@ -4032,7 +4108,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="25" t="s">
         <v>308</v>
       </c>
@@ -4067,7 +4143,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="25" t="s">
         <v>311</v>
       </c>
@@ -4102,7 +4178,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="25" t="s">
         <v>313</v>
       </c>
@@ -4137,7 +4213,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="25" t="s">
         <v>315</v>
       </c>
@@ -4172,7 +4248,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="25" t="s">
         <v>318</v>
       </c>
@@ -4207,7 +4283,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="25" t="s">
         <v>321</v>
       </c>
@@ -4242,7 +4318,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="25" t="s">
         <v>324</v>
       </c>
@@ -4277,7 +4353,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="25" t="s">
         <v>327</v>
       </c>
@@ -4312,7 +4388,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="25" t="s">
         <v>330</v>
       </c>
@@ -4347,7 +4423,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="25" t="s">
         <v>333</v>
       </c>
@@ -4382,7 +4458,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
         <v>335</v>
       </c>
@@ -4417,7 +4493,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="25" t="s">
         <v>338</v>
       </c>
@@ -4452,7 +4528,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="25" t="s">
         <v>341</v>
       </c>
@@ -4487,7 +4563,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="25" t="s">
         <v>344</v>
       </c>
@@ -4522,7 +4598,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="25" t="s">
         <v>346</v>
       </c>
@@ -4557,7 +4633,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="25" t="s">
         <v>384</v>
       </c>
@@ -4592,7 +4668,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="25" t="s">
         <v>385</v>
       </c>
@@ -4635,15 +4711,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="8" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="8" customWidth="1"/>
@@ -4670,7 +4746,7 @@
     <col min="25" max="25" width="12.25" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="11" t="s">
         <v>144</v>
       </c>
@@ -4711,7 +4787,7 @@
         <v>253</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>254</v>
@@ -4747,7 +4823,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="14" t="s">
         <v>150</v>
       </c>
@@ -4788,7 +4864,7 @@
       </c>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="14" t="s">
         <v>150</v>
       </c>
@@ -4848,7 +4924,7 @@
       </c>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="14" t="s">
         <v>150</v>
       </c>
@@ -4904,7 +4980,7 @@
       </c>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="14" t="s">
         <v>150</v>
       </c>
@@ -4948,7 +5024,7 @@
       </c>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="14" t="s">
         <v>150</v>
       </c>
@@ -4991,7 +5067,7 @@
       </c>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="14" t="s">
         <v>150</v>
       </c>
@@ -5037,7 +5113,7 @@
       <c r="X7"/>
       <c r="Y7"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="14" t="s">
         <v>150</v>
       </c>
@@ -5072,7 +5148,7 @@
       <c r="U8"/>
       <c r="Y8"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="14" t="s">
         <v>150</v>
       </c>
@@ -5107,7 +5183,7 @@
       <c r="U9"/>
       <c r="Y9"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="14" t="s">
         <v>150</v>
       </c>
@@ -5142,7 +5218,7 @@
       <c r="U10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="14" t="s">
         <v>150</v>
       </c>
@@ -5180,7 +5256,7 @@
       <c r="U11"/>
       <c r="Y11"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="14" t="s">
         <v>150</v>
       </c>
@@ -5218,7 +5294,7 @@
       <c r="U12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="14" t="s">
         <v>150</v>
       </c>
@@ -5256,7 +5332,7 @@
       <c r="U13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="14" t="s">
         <v>150</v>
       </c>
@@ -5298,7 +5374,7 @@
       </c>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="14" t="s">
         <v>150</v>
       </c>
@@ -5357,7 +5433,7 @@
       </c>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="14" t="s">
         <v>150</v>
       </c>
@@ -5411,7 +5487,7 @@
       </c>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" s="14" t="s">
         <v>150</v>
       </c>
@@ -5461,7 +5537,7 @@
       </c>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="14" t="s">
         <v>150</v>
       </c>
@@ -5513,7 +5589,7 @@
       </c>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" s="14" t="s">
         <v>150</v>
       </c>
@@ -5565,7 +5641,7 @@
       </c>
       <c r="Y19"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="14" t="s">
         <v>150</v>
       </c>
@@ -5617,7 +5693,7 @@
       </c>
       <c r="Y20"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="14" t="s">
         <v>150</v>
       </c>
@@ -5669,7 +5745,7 @@
       </c>
       <c r="Y21"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22" s="14" t="s">
         <v>150</v>
       </c>
@@ -5720,7 +5796,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" s="14" t="s">
         <v>150</v>
       </c>
@@ -5753,7 +5829,7 @@
       <c r="U23"/>
       <c r="Y23"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24" s="14" t="s">
         <v>150</v>
       </c>
@@ -5786,7 +5862,7 @@
       <c r="U24"/>
       <c r="Y24"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" s="14" t="s">
         <v>150</v>
       </c>
@@ -5819,7 +5895,7 @@
       <c r="U25"/>
       <c r="Y25"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26" s="14" t="s">
         <v>150</v>
       </c>
@@ -5855,7 +5931,7 @@
       <c r="U26"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27" s="14" t="s">
         <v>150</v>
       </c>
@@ -5892,7 +5968,7 @@
       <c r="U27"/>
       <c r="Y27"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" s="14" t="s">
         <v>150</v>
       </c>
@@ -5928,6 +6004,188 @@
       <c r="T28"/>
       <c r="U28"/>
       <c r="Y28"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="J30" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="J33" s="9">
+        <v>10</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="9">
+        <v>30</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="J35" s="9">
+        <v>70</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>706</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Y26"/>
@@ -5945,7 +6203,7 @@
       <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
@@ -5958,7 +6216,7 @@
     <col min="10" max="10" width="47.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -5978,7 +6236,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5998,7 +6256,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6018,7 +6276,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6038,7 +6296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6058,7 +6316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6078,7 +6336,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6098,7 +6356,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6118,7 +6376,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6138,7 +6396,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6158,7 +6416,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6178,7 +6436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6198,7 +6456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6218,7 +6476,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6238,7 +6496,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6258,7 +6516,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6275,7 +6533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6295,7 +6553,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6315,7 +6573,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6335,7 +6593,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6355,7 +6613,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6375,7 +6633,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6395,7 +6653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6412,7 +6670,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6429,7 +6687,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6446,7 +6704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6463,7 +6721,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6483,7 +6741,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6503,7 +6761,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6523,7 +6781,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6540,7 +6798,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6557,7 +6815,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6574,7 +6832,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6591,7 +6849,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6608,7 +6866,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6625,7 +6883,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6642,7 +6900,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6659,7 +6917,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6676,7 +6934,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6693,7 +6951,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6713,7 +6971,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6730,7 +6988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6750,7 +7008,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6767,7 +7025,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6784,7 +7042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6804,7 +7062,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6821,7 +7079,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6838,7 +7096,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6858,7 +7116,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6878,7 +7136,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6898,7 +7156,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6918,7 +7176,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6938,7 +7196,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6958,7 +7216,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6978,7 +7236,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6998,7 +7256,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7018,7 +7276,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7038,7 +7296,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7058,7 +7316,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7078,7 +7336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7098,7 +7356,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7118,7 +7376,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7138,7 +7396,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7158,7 +7416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7178,7 +7436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7198,7 +7456,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7218,7 +7476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7238,7 +7496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7258,7 +7516,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7278,7 +7536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>72</v>
       </c>
@@ -7298,7 +7556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>81</v>
       </c>
@@ -7318,7 +7576,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>82</v>
       </c>
@@ -7338,7 +7596,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>83</v>
       </c>
@@ -7358,7 +7616,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>83</v>
       </c>
@@ -7378,7 +7636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>69</v>
       </c>
@@ -7398,7 +7656,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>70</v>
       </c>
@@ -7418,7 +7676,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>71</v>
       </c>
@@ -7438,7 +7696,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>83</v>
       </c>
@@ -7458,7 +7716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>74</v>
       </c>
@@ -7478,7 +7736,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>75</v>
       </c>
@@ -7498,7 +7756,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>76</v>
       </c>
@@ -7518,7 +7776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>78</v>
       </c>
@@ -7538,7 +7796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>83</v>
       </c>
@@ -7558,7 +7816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>79</v>
       </c>
@@ -7578,7 +7836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>80</v>
       </c>
@@ -7598,7 +7856,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>83</v>
       </c>
@@ -7618,7 +7876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>83</v>
       </c>
@@ -7638,7 +7896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>77</v>
       </c>
@@ -7658,7 +7916,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>73</v>
       </c>
@@ -7678,7 +7936,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>86</v>
       </c>
@@ -7698,7 +7956,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>83</v>
       </c>
@@ -7718,7 +7976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>85</v>
       </c>
@@ -7738,7 +7996,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>83</v>
       </c>
@@ -7758,7 +8016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>87</v>
       </c>
@@ -7778,7 +8036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>88</v>
       </c>
@@ -7798,7 +8056,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>89</v>
       </c>
@@ -7818,7 +8076,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="16.149999999999999" customHeight="1">
       <c r="A97">
         <v>90</v>
       </c>
@@ -7838,7 +8096,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>91</v>
       </c>
@@ -7858,7 +8116,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>92</v>
       </c>
@@ -7878,7 +8136,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>93</v>
       </c>
@@ -7898,7 +8156,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>94</v>
       </c>
@@ -7918,7 +8176,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>95</v>
       </c>
@@ -7938,7 +8196,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>96</v>
       </c>
@@ -7958,7 +8216,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>97</v>
       </c>
@@ -7978,7 +8236,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>98</v>
       </c>
@@ -7998,7 +8256,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>99</v>
       </c>
@@ -8018,7 +8276,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>100</v>
       </c>
@@ -8038,7 +8296,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>101</v>
       </c>
@@ -8058,7 +8316,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>102</v>
       </c>
@@ -8078,7 +8336,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>103</v>
       </c>
@@ -8098,7 +8356,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>104</v>
       </c>
@@ -8115,7 +8373,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="16.899999999999999" customHeight="1">
       <c r="A112">
         <v>105</v>
       </c>
@@ -8148,12 +8406,12 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="25" t="s">
         <v>269</v>
       </c>
@@ -8230,7 +8488,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="25" t="s">
         <v>389</v>
       </c>
@@ -8307,7 +8565,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="25" t="s">
         <v>390</v>
       </c>
@@ -8384,7 +8642,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="25" t="s">
         <v>711</v>
       </c>
@@ -8461,7 +8719,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="25" t="s">
         <v>712</v>
       </c>
@@ -8538,7 +8796,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="25" t="s">
         <v>713</v>
       </c>
@@ -8630,12 +8888,12 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="25" t="s">
         <v>269</v>
       </c>
@@ -8664,7 +8922,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="25" t="s">
         <v>277</v>
       </c>
@@ -8693,7 +8951,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="25" t="s">
         <v>283</v>
       </c>
@@ -8727,12 +8985,12 @@
       <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="25" t="s">
         <v>394</v>
       </c>
@@ -8761,7 +9019,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="25" t="s">
         <v>389</v>
       </c>
@@ -8790,7 +9048,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="25" t="s">
         <v>280</v>
       </c>
@@ -8819,7 +9077,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="25" t="s">
         <v>284</v>
       </c>
@@ -8848,7 +9106,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="25" t="s">
         <v>287</v>
       </c>
@@ -8877,7 +9135,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="25" t="s">
         <v>289</v>
       </c>
@@ -8906,7 +9164,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="25" t="s">
         <v>291</v>
       </c>
@@ -8935,7 +9193,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="25" t="s">
         <v>293</v>
       </c>
@@ -8964,7 +9222,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="25" t="s">
         <v>295</v>
       </c>
@@ -8993,7 +9251,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="25" t="s">
         <v>297</v>
       </c>
@@ -9022,7 +9280,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="25" t="s">
         <v>299</v>
       </c>
@@ -9051,7 +9309,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="25" t="s">
         <v>302</v>
       </c>
@@ -9091,12 +9349,12 @@
       <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="25" t="s">
         <v>269</v>
       </c>
@@ -9125,7 +9383,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="25" t="s">
         <v>389</v>
       </c>
@@ -9154,7 +9412,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="25" t="s">
         <v>280</v>
       </c>
@@ -9183,7 +9441,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="25" t="s">
         <v>284</v>
       </c>
@@ -9227,12 +9485,12 @@
       <selection sqref="A1:I126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="25" t="s">
         <v>269</v>
       </c>
@@ -9261,7 +9519,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="25" t="s">
         <v>277</v>
       </c>
@@ -9290,7 +9548,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="25" t="s">
         <v>280</v>
       </c>
@@ -9319,7 +9577,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="25" t="s">
         <v>284</v>
       </c>
@@ -9348,7 +9606,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="25" t="s">
         <v>287</v>
       </c>
@@ -9377,7 +9635,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="25" t="s">
         <v>289</v>
       </c>
@@ -9406,7 +9664,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="25" t="s">
         <v>291</v>
       </c>
@@ -9435,7 +9693,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="25" t="s">
         <v>293</v>
       </c>
@@ -9464,7 +9722,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="25" t="s">
         <v>295</v>
       </c>
@@ -9493,7 +9751,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="10.9" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>297</v>
       </c>
@@ -9522,7 +9780,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="25" t="s">
         <v>299</v>
       </c>
@@ -9551,7 +9809,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="25" t="s">
         <v>302</v>
       </c>
@@ -9580,7 +9838,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="25" t="s">
         <v>305</v>
       </c>
@@ -9609,7 +9867,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="25" t="s">
         <v>308</v>
       </c>
@@ -9638,7 +9896,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="25" t="s">
         <v>311</v>
       </c>
@@ -9667,7 +9925,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="25" t="s">
         <v>313</v>
       </c>
@@ -9696,7 +9954,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="25" t="s">
         <v>315</v>
       </c>
@@ -9725,7 +9983,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="25" t="s">
         <v>318</v>
       </c>
@@ -9754,7 +10012,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="25" t="s">
         <v>321</v>
       </c>
@@ -9783,7 +10041,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="25" t="s">
         <v>324</v>
       </c>
@@ -9812,7 +10070,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="25" t="s">
         <v>327</v>
       </c>
@@ -9841,7 +10099,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="25" t="s">
         <v>330</v>
       </c>
@@ -9870,7 +10128,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="25" t="s">
         <v>333</v>
       </c>
@@ -9899,7 +10157,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="25" t="s">
         <v>335</v>
       </c>
@@ -9928,7 +10186,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="25" t="s">
         <v>338</v>
       </c>
@@ -9957,7 +10215,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="25" t="s">
         <v>341</v>
       </c>
@@ -9986,7 +10244,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="25" t="s">
         <v>344</v>
       </c>
@@ -10015,7 +10273,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="25" t="s">
         <v>346</v>
       </c>
@@ -10044,7 +10302,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="25" t="s">
         <v>384</v>
       </c>
@@ -10073,7 +10331,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="25" t="s">
         <v>385</v>
       </c>
@@ -10102,7 +10360,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="25" t="s">
         <v>405</v>
       </c>
@@ -10131,7 +10389,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="25" t="s">
         <v>406</v>
       </c>
@@ -10160,7 +10418,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="25" t="s">
         <v>407</v>
       </c>
@@ -10189,7 +10447,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="25" t="s">
         <v>408</v>
       </c>
@@ -10218,7 +10476,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="25" t="s">
         <v>409</v>
       </c>
@@ -10247,7 +10505,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="25" t="s">
         <v>410</v>
       </c>
@@ -10276,7 +10534,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="25" t="s">
         <v>411</v>
       </c>
@@ -10305,7 +10563,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="25" t="s">
         <v>491</v>
       </c>
@@ -10334,7 +10592,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="25" t="s">
         <v>492</v>
       </c>
@@ -10363,7 +10621,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="25" t="s">
         <v>493</v>
       </c>
@@ -10392,7 +10650,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="25" t="s">
         <v>494</v>
       </c>
@@ -10421,7 +10679,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="25" t="s">
         <v>495</v>
       </c>
@@ -10450,7 +10708,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="25" t="s">
         <v>496</v>
       </c>
@@ -10479,7 +10737,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="25" t="s">
         <v>497</v>
       </c>
@@ -10508,7 +10766,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="25" t="s">
         <v>498</v>
       </c>
@@ -10537,7 +10795,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="25" t="s">
         <v>499</v>
       </c>
@@ -10566,7 +10824,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="25" t="s">
         <v>500</v>
       </c>
@@ -10595,7 +10853,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="25" t="s">
         <v>501</v>
       </c>
@@ -10624,7 +10882,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="25" t="s">
         <v>502</v>
       </c>
@@ -10653,7 +10911,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="25" t="s">
         <v>503</v>
       </c>
@@ -10682,7 +10940,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="25" t="s">
         <v>504</v>
       </c>
@@ -10711,7 +10969,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="25" t="s">
         <v>505</v>
       </c>
@@ -10740,7 +10998,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="25" t="s">
         <v>506</v>
       </c>
@@ -10769,7 +11027,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="25" t="s">
         <v>507</v>
       </c>
@@ -10798,7 +11056,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="25" t="s">
         <v>508</v>
       </c>
@@ -10827,7 +11085,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="25" t="s">
         <v>509</v>
       </c>
@@ -10856,7 +11114,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="25" t="s">
         <v>510</v>
       </c>
@@ -10885,7 +11143,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="25" t="s">
         <v>511</v>
       </c>
@@ -10914,7 +11172,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="25" t="s">
         <v>512</v>
       </c>
@@ -10943,7 +11201,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="25" t="s">
         <v>513</v>
       </c>
@@ -10972,7 +11230,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="25" t="s">
         <v>514</v>
       </c>
@@ -11001,7 +11259,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="25" t="s">
         <v>515</v>
       </c>
@@ -11030,7 +11288,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="25" t="s">
         <v>516</v>
       </c>
@@ -11059,7 +11317,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="25" t="s">
         <v>517</v>
       </c>
@@ -11088,7 +11346,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="25" t="s">
         <v>518</v>
       </c>
@@ -11117,7 +11375,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="25" t="s">
         <v>519</v>
       </c>
@@ -11146,7 +11404,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="25" t="s">
         <v>520</v>
       </c>
@@ -11175,7 +11433,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="25" t="s">
         <v>521</v>
       </c>
@@ -11204,7 +11462,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="25" t="s">
         <v>522</v>
       </c>
@@ -11233,7 +11491,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="25" t="s">
         <v>523</v>
       </c>
@@ -11262,7 +11520,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="25" t="s">
         <v>524</v>
       </c>
@@ -11291,7 +11549,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="25" t="s">
         <v>525</v>
       </c>
@@ -11320,7 +11578,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="25" t="s">
         <v>526</v>
       </c>
@@ -11349,7 +11607,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="25" t="s">
         <v>527</v>
       </c>
@@ -11378,7 +11636,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="25" t="s">
         <v>528</v>
       </c>
@@ -11407,7 +11665,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="25" t="s">
         <v>529</v>
       </c>
@@ -11436,7 +11694,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="25" t="s">
         <v>530</v>
       </c>
@@ -11465,7 +11723,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="25" t="s">
         <v>531</v>
       </c>
@@ -11494,7 +11752,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="25" t="s">
         <v>532</v>
       </c>
@@ -11523,7 +11781,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="25" t="s">
         <v>533</v>
       </c>
@@ -11552,7 +11810,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="25" t="s">
         <v>534</v>
       </c>
@@ -11581,7 +11839,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="25" t="s">
         <v>535</v>
       </c>
@@ -11610,7 +11868,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="25" t="s">
         <v>536</v>
       </c>
@@ -11639,7 +11897,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="25" t="s">
         <v>537</v>
       </c>
@@ -11668,7 +11926,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="25" t="s">
         <v>538</v>
       </c>
@@ -11697,7 +11955,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="25" t="s">
         <v>539</v>
       </c>
@@ -11726,7 +11984,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="25" t="s">
         <v>540</v>
       </c>
@@ -11755,7 +12013,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="25" t="s">
         <v>541</v>
       </c>
@@ -11784,7 +12042,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="25" t="s">
         <v>542</v>
       </c>
@@ -11813,7 +12071,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="25" t="s">
         <v>543</v>
       </c>
@@ -11842,7 +12100,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="25" t="s">
         <v>544</v>
       </c>
@@ -11871,7 +12129,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="25" t="s">
         <v>545</v>
       </c>
@@ -11900,7 +12158,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="25" t="s">
         <v>546</v>
       </c>
@@ -11929,7 +12187,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="25" t="s">
         <v>547</v>
       </c>
@@ -11958,7 +12216,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="25" t="s">
         <v>548</v>
       </c>
@@ -11987,7 +12245,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="25" t="s">
         <v>549</v>
       </c>
@@ -12016,7 +12274,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="25" t="s">
         <v>550</v>
       </c>
@@ -12045,7 +12303,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="25" t="s">
         <v>551</v>
       </c>
@@ -12074,7 +12332,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="25" t="s">
         <v>552</v>
       </c>
@@ -12103,7 +12361,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="25" t="s">
         <v>553</v>
       </c>
@@ -12132,7 +12390,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="25" t="s">
         <v>554</v>
       </c>
@@ -12161,7 +12419,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="25" t="s">
         <v>555</v>
       </c>
@@ -12190,7 +12448,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="25" t="s">
         <v>556</v>
       </c>
@@ -12219,7 +12477,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="25" t="s">
         <v>558</v>
       </c>
@@ -12248,7 +12506,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="25" t="s">
         <v>559</v>
       </c>
@@ -12277,7 +12535,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="25" t="s">
         <v>560</v>
       </c>
@@ -12306,7 +12564,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="25" t="s">
         <v>561</v>
       </c>
@@ -12335,7 +12593,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="25" t="s">
         <v>567</v>
       </c>
@@ -12364,7 +12622,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="25" t="s">
         <v>568</v>
       </c>
@@ -12393,7 +12651,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="25" t="s">
         <v>569</v>
       </c>
@@ -12422,7 +12680,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="25" t="s">
         <v>570</v>
       </c>
@@ -12451,7 +12709,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="25" t="s">
         <v>571</v>
       </c>
@@ -12480,7 +12738,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="25" t="s">
         <v>572</v>
       </c>
@@ -12509,7 +12767,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="25" t="s">
         <v>573</v>
       </c>
@@ -12538,7 +12796,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="25" t="s">
         <v>574</v>
       </c>
@@ -12567,7 +12825,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="25" t="s">
         <v>575</v>
       </c>
@@ -12596,7 +12854,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="25" t="s">
         <v>576</v>
       </c>
@@ -12625,7 +12883,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="25" t="s">
         <v>612</v>
       </c>
@@ -12654,7 +12912,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="25" t="s">
         <v>613</v>
       </c>
@@ -12683,7 +12941,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="10.9" customHeight="1">
       <c r="A120" s="25" t="s">
         <v>614</v>
       </c>
@@ -12712,7 +12970,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="25" t="s">
         <v>790</v>
       </c>
@@ -12741,7 +12999,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="25" t="s">
         <v>791</v>
       </c>
@@ -12770,7 +13028,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="25" t="s">
         <v>792</v>
       </c>
@@ -12799,7 +13057,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="25" t="s">
         <v>793</v>
       </c>
@@ -12828,7 +13086,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="25" t="s">
         <v>794</v>
       </c>
@@ -12857,7 +13115,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="25" t="s">
         <v>795</v>
       </c>
@@ -12900,7 +13158,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="8.875" style="25"/>
     <col min="3" max="4" width="8.875" style="28"/>
@@ -12913,7 +13171,7 @@
     <col min="14" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="25" t="s">
         <v>566</v>
       </c>
@@ -12927,7 +13185,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="28" t="s">
         <v>151</v>
       </c>
@@ -12980,7 +13238,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="28" t="s">
         <v>151</v>
       </c>
@@ -13033,7 +13291,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="28" t="s">
         <v>151</v>
       </c>
@@ -13086,7 +13344,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="28" t="s">
         <v>151</v>
       </c>
@@ -13139,7 +13397,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="28" t="s">
         <v>151</v>
       </c>
@@ -13192,7 +13450,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="28" t="s">
         <v>151</v>
       </c>
@@ -13245,7 +13503,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="28" t="s">
         <v>151</v>
       </c>
@@ -13298,7 +13556,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="28" t="s">
         <v>151</v>
       </c>
@@ -13351,7 +13609,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="28" t="s">
         <v>151</v>
       </c>
@@ -13404,7 +13662,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="28" t="s">
         <v>151</v>
       </c>
@@ -13457,7 +13715,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="B12" s="28" t="s">
         <v>151</v>
       </c>
@@ -13510,7 +13768,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="C13" s="28" t="s">
         <v>151</v>
       </c>
@@ -13560,7 +13818,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="B14" s="28" t="s">
         <v>151</v>
       </c>
@@ -13613,7 +13871,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="C15" s="28" t="s">
         <v>151</v>
       </c>
@@ -13663,7 +13921,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="B16" s="28" t="s">
         <v>151</v>
       </c>
@@ -13716,7 +13974,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:19">
       <c r="C17" s="28" t="s">
         <v>151</v>
       </c>
@@ -13766,7 +14024,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:19">
       <c r="C18" s="28" t="s">
         <v>151</v>
       </c>
@@ -13819,7 +14077,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:19">
       <c r="C19" s="28" t="s">
         <v>151</v>
       </c>
@@ -13866,7 +14124,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:19">
       <c r="C20" s="28" t="s">
         <v>151</v>
       </c>
@@ -13916,7 +14174,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:19">
       <c r="C21" s="28" t="s">
         <v>151</v>
       </c>
@@ -13966,7 +14224,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:19">
       <c r="C22" s="28" t="s">
         <v>151</v>
       </c>
@@ -14016,7 +14274,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:19">
       <c r="C23" s="28" t="s">
         <v>151</v>
       </c>
@@ -14066,7 +14324,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:19">
       <c r="C24" s="28" t="s">
         <v>151</v>
       </c>
@@ -14116,7 +14374,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:19">
       <c r="C25" s="28" t="s">
         <v>151</v>
       </c>
@@ -14166,7 +14424,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:19">
       <c r="C26" s="28" t="s">
         <v>151</v>
       </c>
@@ -14216,7 +14474,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19">
       <c r="C27" s="28" t="s">
         <v>151</v>
       </c>
@@ -14266,7 +14524,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19">
       <c r="C28" s="28" t="s">
         <v>151</v>
       </c>
@@ -14316,7 +14574,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:19">
       <c r="C29" s="28" t="s">
         <v>151</v>
       </c>
@@ -14366,7 +14624,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:19">
       <c r="C30" s="28" t="s">
         <v>151</v>
       </c>
@@ -14416,7 +14674,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:19">
       <c r="C31" s="28" t="s">
         <v>151</v>
       </c>
@@ -14463,7 +14721,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:19">
       <c r="C32" s="28" t="s">
         <v>151</v>
       </c>
@@ -14513,7 +14771,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19">
       <c r="C33" s="28" t="s">
         <v>151</v>
       </c>
@@ -14563,7 +14821,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19">
       <c r="C34" s="28" t="s">
         <v>151</v>
       </c>
@@ -14613,7 +14871,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19">
       <c r="C35" s="28" t="s">
         <v>151</v>
       </c>
@@ -14663,7 +14921,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19">
       <c r="C36" s="28" t="s">
         <v>151</v>
       </c>
@@ -14713,7 +14971,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19">
       <c r="C37" s="28" t="s">
         <v>151</v>
       </c>
@@ -14763,7 +15021,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19">
       <c r="C38" s="28" t="s">
         <v>151</v>
       </c>
@@ -14810,7 +15068,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19">
       <c r="C39" s="28" t="s">
         <v>151</v>
       </c>
@@ -14860,7 +15118,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19">
       <c r="C40" s="28" t="s">
         <v>151</v>
       </c>
@@ -14910,7 +15168,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19">
       <c r="C41" s="28" t="s">
         <v>151</v>
       </c>
@@ -14960,7 +15218,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19">
       <c r="B42" s="28" t="s">
         <v>151</v>
       </c>
@@ -15013,7 +15271,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19">
       <c r="C43" s="28" t="s">
         <v>151</v>
       </c>
@@ -15063,7 +15321,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19">
       <c r="B44" s="28" t="s">
         <v>151</v>
       </c>
@@ -15116,7 +15374,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19">
       <c r="B45" s="28" t="s">
         <v>151</v>
       </c>
@@ -15169,7 +15427,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19">
       <c r="C46" s="28" t="s">
         <v>151</v>
       </c>
@@ -15222,7 +15480,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19">
       <c r="C47" s="28" t="s">
         <v>151</v>
       </c>
@@ -15269,7 +15527,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19">
       <c r="C48" s="28" t="s">
         <v>151</v>
       </c>
@@ -15319,7 +15577,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19">
       <c r="C49" s="28" t="s">
         <v>151</v>
       </c>
@@ -15369,7 +15627,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19">
       <c r="C50" s="28" t="s">
         <v>151</v>
       </c>
@@ -15419,7 +15677,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19">
       <c r="C51" s="28" t="s">
         <v>151</v>
       </c>
@@ -15469,7 +15727,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19">
       <c r="C52" s="28" t="s">
         <v>151</v>
       </c>
@@ -15516,7 +15774,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19">
       <c r="C53" s="28" t="s">
         <v>151</v>
       </c>
@@ -15566,7 +15824,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19">
       <c r="C54" s="28" t="s">
         <v>151</v>
       </c>
@@ -15616,7 +15874,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19">
       <c r="C55" s="28" t="s">
         <v>151</v>
       </c>
@@ -15666,7 +15924,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19">
       <c r="C56" s="28" t="s">
         <v>151</v>
       </c>
@@ -15716,7 +15974,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19">
       <c r="C57" s="28" t="s">
         <v>151</v>
       </c>
@@ -15766,7 +16024,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19">
       <c r="C58" s="28" t="s">
         <v>151</v>
       </c>
@@ -15816,7 +16074,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19">
       <c r="C59" s="28" t="s">
         <v>151</v>
       </c>
@@ -15866,7 +16124,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19">
       <c r="C60" s="28" t="s">
         <v>151</v>
       </c>
@@ -15916,7 +16174,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19">
       <c r="C61" s="28" t="s">
         <v>151</v>
       </c>
@@ -15966,7 +16224,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19">
       <c r="C62" s="28" t="s">
         <v>151</v>
       </c>
@@ -16016,7 +16274,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:19">
       <c r="C63" s="28" t="s">
         <v>151</v>
       </c>
@@ -16066,7 +16324,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19">
       <c r="B64" s="28" t="s">
         <v>151</v>
       </c>
@@ -16116,7 +16374,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:19">
       <c r="C65" s="28" t="s">
         <v>151</v>
       </c>
@@ -16166,7 +16424,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:19">
       <c r="C66" s="28" t="s">
         <v>151</v>
       </c>
@@ -16216,7 +16474,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:19">
       <c r="C67" s="28" t="s">
         <v>151</v>
       </c>
@@ -16266,7 +16524,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:19">
       <c r="B68" s="28" t="s">
         <v>151</v>
       </c>
@@ -16319,7 +16577,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:19">
       <c r="C69" s="28" t="s">
         <v>151</v>
       </c>
@@ -16366,7 +16624,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:19">
       <c r="C70" s="28" t="s">
         <v>151</v>
       </c>
@@ -16416,7 +16674,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:19">
       <c r="C71" s="28" t="s">
         <v>151</v>
       </c>
@@ -16466,7 +16724,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:19">
       <c r="C72" s="28" t="s">
         <v>151</v>
       </c>
@@ -16516,7 +16774,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:19">
       <c r="C73" s="28" t="s">
         <v>151</v>
       </c>
@@ -16566,7 +16824,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:19">
       <c r="C74" s="28" t="s">
         <v>151</v>
       </c>
@@ -16616,7 +16874,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:19">
       <c r="C75" s="28" t="s">
         <v>151</v>
       </c>
@@ -16666,7 +16924,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:19">
       <c r="C76" s="28" t="s">
         <v>151</v>
       </c>
@@ -16713,7 +16971,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:19">
       <c r="C77" s="28" t="s">
         <v>151</v>
       </c>
@@ -16763,7 +17021,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:19">
       <c r="C78" s="28" t="s">
         <v>151</v>
       </c>
@@ -16813,7 +17071,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:19">
       <c r="C79" s="28" t="s">
         <v>151</v>
       </c>
@@ -16863,7 +17121,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:19">
       <c r="C80" s="28" t="s">
         <v>151</v>
       </c>
@@ -16913,7 +17171,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:19">
       <c r="C81" s="28" t="s">
         <v>151</v>
       </c>
@@ -16963,7 +17221,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:19">
       <c r="C82" s="28" t="s">
         <v>151</v>
       </c>
@@ -17013,7 +17271,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:19">
       <c r="C83" s="28" t="s">
         <v>151</v>
       </c>
@@ -17063,7 +17321,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:19">
       <c r="C84" s="28" t="s">
         <v>151</v>
       </c>
@@ -17113,7 +17371,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:19">
       <c r="C85" s="28" t="s">
         <v>151</v>
       </c>
@@ -17163,7 +17421,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:19">
       <c r="C86" s="28" t="s">
         <v>151</v>
       </c>
@@ -17213,7 +17471,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:19">
       <c r="C87" s="28" t="s">
         <v>151</v>
       </c>
@@ -17263,7 +17521,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:19">
       <c r="C88" s="28" t="s">
         <v>151</v>
       </c>
@@ -17313,7 +17571,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:19">
       <c r="C89" s="28" t="s">
         <v>151</v>
       </c>
@@ -17366,7 +17624,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:19">
       <c r="C90" s="28" t="s">
         <v>151</v>
       </c>
@@ -17413,7 +17671,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:19">
       <c r="C91" s="28" t="s">
         <v>151</v>
       </c>
@@ -17463,7 +17721,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:19">
       <c r="C92" s="28" t="s">
         <v>151</v>
       </c>
@@ -17510,7 +17768,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:19">
       <c r="C93" s="28" t="s">
         <v>151</v>
       </c>
